--- a/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC2.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC2.1_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2699667541506972</v>
+        <v>0.2731313111127225</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.26996675415069715, 'ngram_match_score': 0.15721523827040143, 'weighted_ngram_match_score': 0.16746190491466573, 'syntax_match_score': 0.54, 'dataflow_match_score': 0.21518987341772153}</t>
+          <t>{'codebleu': 0.2731313111127225, 'ngram_match_score': 0.15721523827040143, 'weighted_ngram_match_score': 0.16746190491466573, 'syntax_match_score': 0.54, 'dataflow_match_score': 0.22784810126582278}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
